--- a/Code/Results/Cases/Case_3_240/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_240/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.11688212058269</v>
+        <v>18.8984962467368</v>
       </c>
       <c r="C2">
-        <v>14.52753843555639</v>
+        <v>11.24160509503961</v>
       </c>
       <c r="D2">
-        <v>4.618035127923672</v>
+        <v>5.969196063717503</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>64.7031210227549</v>
+        <v>57.31403531164443</v>
       </c>
       <c r="G2">
-        <v>2.096031887425498</v>
+        <v>3.7333297268994</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.829781648202824</v>
+        <v>10.7632301593864</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.78074139175236</v>
+        <v>19.46103087425163</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.54709394575772</v>
+        <v>18.64260506295506</v>
       </c>
       <c r="C3">
-        <v>13.4189749063607</v>
+        <v>11.0250145304494</v>
       </c>
       <c r="D3">
-        <v>4.308371560841427</v>
+        <v>5.936817003760138</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>61.26188536861727</v>
+        <v>56.35541699134136</v>
       </c>
       <c r="G3">
-        <v>2.111051462239393</v>
+        <v>3.738188842496593</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.775217892688623</v>
+        <v>10.77125333891725</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.1832553450557</v>
+        <v>19.46746815874981</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.54460446278142</v>
+        <v>18.49228409001401</v>
       </c>
       <c r="C4">
-        <v>12.71146544631867</v>
+        <v>10.89631912078327</v>
       </c>
       <c r="D4">
-        <v>4.111981393364682</v>
+        <v>5.917750549945874</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>59.11372424977378</v>
+        <v>55.76692645410509</v>
       </c>
       <c r="G4">
-        <v>2.120400754784236</v>
+        <v>3.741321186311438</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.744809055802772</v>
+        <v>10.77726643505485</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.82246019360174</v>
+        <v>19.47781167879008</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.12614094377665</v>
+        <v>18.43282339118874</v>
       </c>
       <c r="C5">
-        <v>12.4161691744021</v>
+        <v>10.84504907722565</v>
       </c>
       <c r="D5">
-        <v>4.030329504188164</v>
+        <v>5.910187050355404</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>58.22969791964488</v>
+        <v>55.52736877362982</v>
       </c>
       <c r="G5">
-        <v>2.124248625854928</v>
+        <v>3.742635235479936</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.733155289578899</v>
+        <v>10.77998980862089</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.67705700681839</v>
+        <v>19.48363130284492</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.05604955386553</v>
+        <v>18.42306093451035</v>
       </c>
       <c r="C6">
-        <v>12.36670788141715</v>
+        <v>10.83660938572837</v>
       </c>
       <c r="D6">
-        <v>4.016672193646236</v>
+        <v>5.908943628713014</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>58.08239537743383</v>
+        <v>55.48761267214643</v>
       </c>
       <c r="G6">
-        <v>2.124890017057167</v>
+        <v>3.742855707878715</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.731263662295276</v>
+        <v>10.78045850118826</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.65301451903439</v>
+        <v>19.48469446314044</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.53900142263871</v>
+        <v>18.49147479729257</v>
       </c>
       <c r="C7">
-        <v>12.70751151652675</v>
+        <v>10.8956227961106</v>
       </c>
       <c r="D7">
-        <v>4.110886826136776</v>
+        <v>5.917647709244327</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>59.10183646075957</v>
+        <v>55.76369434986085</v>
       </c>
       <c r="G7">
-        <v>2.120452487396006</v>
+        <v>3.741338755596524</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.744648950953551</v>
+        <v>10.77730205851547</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.82049250545604</v>
+        <v>19.47788367157538</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.58348195754408</v>
+        <v>18.80890780886543</v>
       </c>
       <c r="C8">
-        <v>14.15072722907933</v>
+        <v>11.16609156290284</v>
       </c>
       <c r="D8">
-        <v>4.512528086449679</v>
+        <v>5.957863691025628</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>63.52396007685173</v>
+        <v>56.98361993451871</v>
       </c>
       <c r="G8">
-        <v>2.101188039154243</v>
+        <v>3.734974363431582</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.81030100073994</v>
+        <v>10.76577080131484</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.57351763071101</v>
+        <v>19.46192281132033</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.2997784898008</v>
+        <v>19.48129604952349</v>
       </c>
       <c r="C9">
-        <v>16.78045335593864</v>
+        <v>11.72627421137064</v>
       </c>
       <c r="D9">
-        <v>5.253459693970304</v>
+        <v>6.043112924458401</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.91887309939592</v>
+        <v>59.36669242314252</v>
       </c>
       <c r="G9">
-        <v>2.064110400583014</v>
+        <v>3.723666925541245</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.965588567187597</v>
+        <v>10.75179543438049</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.65663328671667</v>
+        <v>19.48139776147003</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.87597277543869</v>
+        <v>20.00012227652342</v>
       </c>
       <c r="C10">
-        <v>18.61178170547351</v>
+        <v>12.15028923819359</v>
       </c>
       <c r="D10">
-        <v>5.774728237623325</v>
+        <v>6.109518921963804</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>77.94160815477153</v>
+        <v>61.09876512677802</v>
       </c>
       <c r="G10">
-        <v>2.036787812470927</v>
+        <v>3.716063627258094</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.099051864974861</v>
+        <v>10.7468127091906</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.31239316855287</v>
+        <v>19.52667720609165</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.02167674328079</v>
+        <v>20.24032207935586</v>
       </c>
       <c r="C11">
-        <v>19.42914391736978</v>
+        <v>12.34470708424749</v>
       </c>
       <c r="D11">
-        <v>6.00846014766307</v>
+        <v>6.140516597235359</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>80.66146327870379</v>
+        <v>61.87997365874671</v>
       </c>
       <c r="G11">
-        <v>2.024198946964256</v>
+        <v>3.712755275750523</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.164837991146825</v>
+        <v>10.7456972990669</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.04750614538171</v>
+        <v>19.55398049136167</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.45251702196392</v>
+        <v>20.3317796068098</v>
       </c>
       <c r="C12">
-        <v>19.73703761304055</v>
+        <v>12.41845419541169</v>
       </c>
       <c r="D12">
-        <v>6.096651788497867</v>
+        <v>6.152364938653754</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>81.68997835947982</v>
+        <v>62.17461620349076</v>
       </c>
       <c r="G12">
-        <v>2.019394244396221</v>
+        <v>3.711523938004527</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.190567148093067</v>
+        <v>10.74544070820899</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.32378408091522</v>
+        <v>19.56527998973617</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.35984805077382</v>
+        <v>20.31206201059521</v>
       </c>
       <c r="C13">
-        <v>19.67078783668645</v>
+        <v>12.40256732916072</v>
       </c>
       <c r="D13">
-        <v>6.077669140099</v>
+        <v>6.149808340556933</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>81.46850541355906</v>
+        <v>62.11121569827633</v>
       </c>
       <c r="G13">
-        <v>2.020430958772239</v>
+        <v>3.711788176716142</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.184987976132853</v>
+        <v>10.74548859249611</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.26436660235596</v>
+        <v>19.56280380422424</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.05717770024761</v>
+        <v>20.24783692455953</v>
       </c>
       <c r="C14">
-        <v>19.45450293723758</v>
+        <v>12.35077232104114</v>
       </c>
       <c r="D14">
-        <v>6.015720979570836</v>
+        <v>6.141489178722001</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>80.74609879056666</v>
+        <v>61.90423902650234</v>
       </c>
       <c r="G14">
-        <v>2.023804508450032</v>
+        <v>3.712653543662945</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.166937798453689</v>
+        <v>10.74567286519998</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.07027437979505</v>
+        <v>19.55489088794382</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.87141621570905</v>
+        <v>20.20855918316187</v>
       </c>
       <c r="C15">
-        <v>19.32183188424385</v>
+        <v>12.31905995461051</v>
       </c>
       <c r="D15">
-        <v>5.977740289246432</v>
+        <v>6.136407700338501</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.30346709385856</v>
+        <v>61.77729931270135</v>
       </c>
       <c r="G15">
-        <v>2.025865528315283</v>
+        <v>3.71318639605099</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.155990887719708</v>
+        <v>10.74580733511483</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.95113146643464</v>
+        <v>19.55016892610217</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.80063192667646</v>
+        <v>19.98450004150408</v>
       </c>
       <c r="C16">
-        <v>18.55810040095015</v>
+        <v>12.13760618187747</v>
       </c>
       <c r="D16">
-        <v>5.759398751859517</v>
+        <v>6.107508756488635</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>77.76357060768932</v>
+        <v>61.04755726404403</v>
       </c>
       <c r="G16">
-        <v>2.037606126745428</v>
+        <v>3.716282848424475</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.094861810055689</v>
+        <v>10.74690879134059</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.26402896375389</v>
+        <v>19.52502749729423</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.13751610057813</v>
+        <v>19.84804513188681</v>
       </c>
       <c r="C17">
-        <v>18.08596406391934</v>
+        <v>12.02661356905648</v>
       </c>
       <c r="D17">
-        <v>5.624693967202351</v>
+        <v>6.089980070346619</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.20120627291213</v>
+        <v>60.59800522262335</v>
       </c>
       <c r="G17">
-        <v>2.044758177414704</v>
+        <v>3.718220830109018</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.058717957755604</v>
+        <v>10.7478795437306</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.83821121467098</v>
+        <v>19.51131908113452</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.75358784796967</v>
+        <v>19.76995969276845</v>
       </c>
       <c r="C18">
-        <v>17.81287943464952</v>
+        <v>11.96292312897134</v>
       </c>
       <c r="D18">
-        <v>5.546883562668349</v>
+        <v>6.079972536177348</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.30059109335909</v>
+        <v>60.33881475940195</v>
       </c>
       <c r="G18">
-        <v>2.048857840963178</v>
+        <v>3.719349674881136</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.038400355282713</v>
+        <v>10.74854624383027</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.59155291622276</v>
+        <v>19.50406582124171</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.62314266349712</v>
+        <v>19.74359311620425</v>
       </c>
       <c r="C19">
-        <v>17.72013850298092</v>
+        <v>11.94138728813667</v>
       </c>
       <c r="D19">
-        <v>5.520476687617237</v>
+        <v>6.076597049340301</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>74.99528092277804</v>
+        <v>60.25095761484599</v>
       </c>
       <c r="G19">
-        <v>2.050243910873814</v>
+        <v>3.719734320972624</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.031599707429846</v>
+        <v>10.74879057827489</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.50772594115872</v>
+        <v>19.50171854443964</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.20836189334323</v>
+        <v>19.86253035710077</v>
       </c>
       <c r="C20">
-        <v>18.13637733487716</v>
+        <v>12.03841414231548</v>
       </c>
       <c r="D20">
-        <v>5.639066736847166</v>
+        <v>6.091838341292502</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>76.36771905964724</v>
+        <v>60.64592658076574</v>
       </c>
       <c r="G20">
-        <v>2.043998375871733</v>
+        <v>3.718013063433503</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.062516161350922</v>
+        <v>10.74776498994005</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.88371685323757</v>
+        <v>19.51271303627983</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.14615424779983</v>
+        <v>20.2666886535658</v>
       </c>
       <c r="C21">
-        <v>19.51806938635528</v>
+        <v>12.36598310550451</v>
       </c>
       <c r="D21">
-        <v>6.033923727071078</v>
+        <v>6.143929755080173</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>80.95831242889643</v>
+        <v>61.96506692161488</v>
       </c>
       <c r="G21">
-        <v>2.022814766006797</v>
+        <v>3.712398783249629</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.172216604245627</v>
+        <v>10.74561423853544</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.12733623040349</v>
+        <v>19.55718907704798</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.3955281112476</v>
+        <v>20.53369215423791</v>
       </c>
       <c r="C22">
-        <v>20.41201936356862</v>
+        <v>12.58075774201812</v>
       </c>
       <c r="D22">
-        <v>6.290242738923762</v>
+        <v>6.17861510424164</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>83.95117399202616</v>
+        <v>62.82020462427217</v>
       </c>
       <c r="G22">
-        <v>2.008741975087854</v>
+        <v>3.708854552226083</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.248730591477869</v>
+        <v>10.74517504676261</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.92822490670493</v>
+        <v>19.59185166042861</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.72998249691433</v>
+        <v>20.39095885034827</v>
       </c>
       <c r="C23">
-        <v>19.93548417504133</v>
+        <v>12.46609563371426</v>
       </c>
       <c r="D23">
-        <v>6.15353324852901</v>
+        <v>6.160045418216804</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>82.35390537231386</v>
+        <v>62.3645113412674</v>
       </c>
       <c r="G23">
-        <v>2.016279398716749</v>
+        <v>3.710734790749841</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.207419001574338</v>
+        <v>10.74532094866134</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.50166772543051</v>
+        <v>19.57284125083687</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.17634095709478</v>
+        <v>19.85598044426064</v>
       </c>
       <c r="C24">
-        <v>18.11359067191222</v>
+        <v>12.03307871996969</v>
       </c>
       <c r="D24">
-        <v>5.632569962677417</v>
+        <v>6.090997998899941</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.29244617843803</v>
+        <v>60.62426361373545</v>
       </c>
       <c r="G24">
-        <v>2.044341918916487</v>
+        <v>3.718106949030872</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.060797560947934</v>
+        <v>10.7478164414575</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.86314955352801</v>
+        <v>19.51208087313676</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.32357371346141</v>
+        <v>19.29462575419445</v>
       </c>
       <c r="C25">
-        <v>16.08851849589712</v>
+        <v>11.57213438199699</v>
       </c>
       <c r="D25">
-        <v>5.057534225187137</v>
+        <v>6.019378230269244</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>69.67605601468379</v>
+        <v>58.72437094659625</v>
       </c>
       <c r="G25">
-        <v>2.07411356358835</v>
+        <v>3.726601422083518</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.920434260619213</v>
+        <v>10.75464934603525</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.02792330323191</v>
+        <v>19.47068701852979</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_240/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_240/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.8984962467368</v>
+        <v>21.11688212058272</v>
       </c>
       <c r="C2">
-        <v>11.24160509503961</v>
+        <v>14.52753843555633</v>
       </c>
       <c r="D2">
-        <v>5.969196063717503</v>
+        <v>4.618035127923579</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>57.31403531164443</v>
+        <v>64.7031210227549</v>
       </c>
       <c r="G2">
-        <v>3.7333297268994</v>
+        <v>2.096031887425235</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.7632301593864</v>
+        <v>6.829781648202878</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.46103087425163</v>
+        <v>13.78074139175242</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.64260506295506</v>
+        <v>19.54709394575774</v>
       </c>
       <c r="C3">
-        <v>11.0250145304494</v>
+        <v>13.41897490636081</v>
       </c>
       <c r="D3">
-        <v>5.936817003760138</v>
+        <v>4.308371560841382</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>56.35541699134136</v>
+        <v>61.26188536861724</v>
       </c>
       <c r="G3">
-        <v>3.738188842496593</v>
+        <v>2.111051462239249</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.77125333891725</v>
+        <v>6.775217892688685</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.46746815874981</v>
+        <v>13.18325534505566</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.49228409001401</v>
+        <v>18.54460446278145</v>
       </c>
       <c r="C4">
-        <v>10.89631912078327</v>
+        <v>12.71146544631869</v>
       </c>
       <c r="D4">
-        <v>5.917750549945874</v>
+        <v>4.111981393364714</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>55.76692645410509</v>
+        <v>59.1137242497738</v>
       </c>
       <c r="G4">
-        <v>3.741321186311438</v>
+        <v>2.120400754784101</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.77726643505485</v>
+        <v>6.744809055802834</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19.47781167879008</v>
+        <v>12.82246019360174</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.43282339118874</v>
+        <v>18.12614094377671</v>
       </c>
       <c r="C5">
-        <v>10.84504907722565</v>
+        <v>12.41616917440212</v>
       </c>
       <c r="D5">
-        <v>5.910187050355404</v>
+        <v>4.030329504188179</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.52736877362982</v>
+        <v>58.22969791964501</v>
       </c>
       <c r="G5">
-        <v>3.742635235479936</v>
+        <v>2.124248625855059</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.77998980862089</v>
+        <v>6.733155289578882</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>19.48363130284492</v>
+        <v>12.67705700681833</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.42306093451035</v>
+        <v>18.05604955386538</v>
       </c>
       <c r="C6">
-        <v>10.83660938572837</v>
+        <v>12.36670788141707</v>
       </c>
       <c r="D6">
-        <v>5.908943628713014</v>
+        <v>4.016672193646191</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.48761267214643</v>
+        <v>58.08239537743375</v>
       </c>
       <c r="G6">
-        <v>3.742855707878715</v>
+        <v>2.124890017057434</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.78045850118826</v>
+        <v>6.731263662295264</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>19.48469446314044</v>
+        <v>12.65301451903447</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.49147479729257</v>
+        <v>18.53900142263875</v>
       </c>
       <c r="C7">
-        <v>10.8956227961106</v>
+        <v>12.70751151652677</v>
       </c>
       <c r="D7">
-        <v>5.917647709244327</v>
+        <v>4.11088682613671</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>55.76369434986085</v>
+        <v>59.10183646075942</v>
       </c>
       <c r="G7">
-        <v>3.741338755596524</v>
+        <v>2.120452487395886</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.77730205851547</v>
+        <v>6.744648950953583</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>19.47788367157538</v>
+        <v>12.82049250545599</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.80890780886543</v>
+        <v>20.58348195754416</v>
       </c>
       <c r="C8">
-        <v>11.16609156290284</v>
+        <v>14.15072722907918</v>
       </c>
       <c r="D8">
-        <v>5.957863691025628</v>
+        <v>4.512528086449701</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>56.98361993451871</v>
+        <v>63.52396007685194</v>
       </c>
       <c r="G8">
-        <v>3.734974363431582</v>
+        <v>2.101188039154371</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.76577080131484</v>
+        <v>6.810301000739995</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.46192281132033</v>
+        <v>13.573517630711</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.48129604952349</v>
+        <v>24.29977848980074</v>
       </c>
       <c r="C9">
-        <v>11.72627421137064</v>
+        <v>16.78045335593878</v>
       </c>
       <c r="D9">
-        <v>6.043112924458401</v>
+        <v>5.253459693970288</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>59.36669242314252</v>
+        <v>71.91887309939578</v>
       </c>
       <c r="G9">
-        <v>3.723666925541245</v>
+        <v>2.064110400582892</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.75179543438049</v>
+        <v>6.96558856718762</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.48139776147003</v>
+        <v>15.65663328671664</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.00012227652342</v>
+        <v>26.87597277543875</v>
       </c>
       <c r="C10">
-        <v>12.15028923819359</v>
+        <v>18.61178170547362</v>
       </c>
       <c r="D10">
-        <v>6.109518921963804</v>
+        <v>5.774728237623421</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>61.09876512677802</v>
+        <v>77.94160815477194</v>
       </c>
       <c r="G10">
-        <v>3.716063627258094</v>
+        <v>2.03678781247081</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.7468127091906</v>
+        <v>7.099051864974903</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.52667720609165</v>
+        <v>17.31239316855284</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.24032207935586</v>
+        <v>28.02167674328075</v>
       </c>
       <c r="C11">
-        <v>12.34470708424749</v>
+        <v>19.42914391736972</v>
       </c>
       <c r="D11">
-        <v>6.140516597235359</v>
+        <v>6.008460147663019</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>61.87997365874671</v>
+        <v>80.66146327870379</v>
       </c>
       <c r="G11">
-        <v>3.712755275750523</v>
+        <v>2.024198946964515</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.7456972990669</v>
+        <v>7.164837991146866</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.55398049136167</v>
+        <v>18.04750614538167</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.3317796068098</v>
+        <v>28.45251702196381</v>
       </c>
       <c r="C12">
-        <v>12.41845419541169</v>
+        <v>19.73703761304062</v>
       </c>
       <c r="D12">
-        <v>6.152364938653754</v>
+        <v>6.096651788497757</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>62.17461620349076</v>
+        <v>81.68997835947937</v>
       </c>
       <c r="G12">
-        <v>3.711523938004527</v>
+        <v>2.019394244396244</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.74544070820899</v>
+        <v>7.190567148093028</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.56527998973617</v>
+        <v>18.3237840809152</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.31206201059521</v>
+        <v>28.35984805077388</v>
       </c>
       <c r="C13">
-        <v>12.40256732916072</v>
+        <v>19.67078783668656</v>
       </c>
       <c r="D13">
-        <v>6.149808340556933</v>
+        <v>6.077669140099059</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>62.11121569827633</v>
+        <v>81.46850541355946</v>
       </c>
       <c r="G13">
-        <v>3.711788176716142</v>
+        <v>2.020430958772377</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.74548859249611</v>
+        <v>7.184987976132863</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.56280380422424</v>
+        <v>18.26436660235597</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.24783692455953</v>
+        <v>28.05717770024729</v>
       </c>
       <c r="C14">
-        <v>12.35077232104114</v>
+        <v>19.45450293723757</v>
       </c>
       <c r="D14">
-        <v>6.141489178722001</v>
+        <v>6.015720979570641</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>61.90423902650234</v>
+        <v>80.74609879056563</v>
       </c>
       <c r="G14">
-        <v>3.712653543662945</v>
+        <v>2.023804508450059</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.74567286519998</v>
+        <v>7.166937798453748</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.55489088794382</v>
+        <v>18.07027437979488</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.20855918316187</v>
+        <v>27.8714162157091</v>
       </c>
       <c r="C15">
-        <v>12.31905995461051</v>
+        <v>19.32183188424365</v>
       </c>
       <c r="D15">
-        <v>6.136407700338501</v>
+        <v>5.977740289246544</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>61.77729931270135</v>
+        <v>80.303467093859</v>
       </c>
       <c r="G15">
-        <v>3.71318639605099</v>
+        <v>2.02586552831514</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.74580733511483</v>
+        <v>7.15599088771978</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.55016892610217</v>
+        <v>17.9511314664346</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.98450004150408</v>
+        <v>26.80063192667657</v>
       </c>
       <c r="C16">
-        <v>12.13760618187747</v>
+        <v>18.55810040095007</v>
       </c>
       <c r="D16">
-        <v>6.107508756488635</v>
+        <v>5.759398751859539</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>61.04755726404403</v>
+        <v>77.76357060768953</v>
       </c>
       <c r="G16">
-        <v>3.716282848424475</v>
+        <v>2.037606126745427</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.74690879134059</v>
+        <v>7.094861810055709</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.52502749729423</v>
+        <v>17.26402896375389</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.84804513188681</v>
+        <v>26.13751610057832</v>
       </c>
       <c r="C17">
-        <v>12.02661356905648</v>
+        <v>18.08596406391937</v>
       </c>
       <c r="D17">
-        <v>6.089980070346619</v>
+        <v>5.624693967202413</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>60.59800522262335</v>
+        <v>76.20120627291259</v>
       </c>
       <c r="G17">
-        <v>3.718220830109018</v>
+        <v>2.044758177414708</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.7478795437306</v>
+        <v>7.058717957755631</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.51131908113452</v>
+        <v>16.83821121467105</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.76995969276845</v>
+        <v>25.75358784796954</v>
       </c>
       <c r="C18">
-        <v>11.96292312897134</v>
+        <v>17.81287943464943</v>
       </c>
       <c r="D18">
-        <v>6.079972536177348</v>
+        <v>5.546883562668311</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>60.33881475940195</v>
+        <v>75.30059109335883</v>
       </c>
       <c r="G18">
-        <v>3.719349674881136</v>
+        <v>2.048857840963174</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.74854624383027</v>
+        <v>7.038400355282685</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.50406582124171</v>
+        <v>16.59155291622268</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.74359311620425</v>
+        <v>25.62314266349716</v>
       </c>
       <c r="C19">
-        <v>11.94138728813667</v>
+        <v>17.7201385029807</v>
       </c>
       <c r="D19">
-        <v>6.076597049340301</v>
+        <v>5.520476687617292</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>60.25095761484599</v>
+        <v>74.99528092277829</v>
       </c>
       <c r="G19">
-        <v>3.719734320972624</v>
+        <v>2.050243910873558</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.74879057827489</v>
+        <v>7.031599707429881</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.50171854443964</v>
+        <v>16.50772594115868</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.86253035710077</v>
+        <v>26.20836189334333</v>
       </c>
       <c r="C20">
-        <v>12.03841414231548</v>
+        <v>18.13637733487705</v>
       </c>
       <c r="D20">
-        <v>6.091838341292502</v>
+        <v>5.639066736847092</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>60.64592658076574</v>
+        <v>76.36771905964682</v>
       </c>
       <c r="G20">
-        <v>3.718013063433503</v>
+        <v>2.043998375871473</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.74776498994005</v>
+        <v>7.062516161350997</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.51271303627983</v>
+        <v>16.88371685323759</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.2666886535658</v>
+        <v>28.14615424779977</v>
       </c>
       <c r="C21">
-        <v>12.36598310550451</v>
+        <v>19.51806938635525</v>
       </c>
       <c r="D21">
-        <v>6.143929755080173</v>
+        <v>6.033923727070976</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>61.96506692161488</v>
+        <v>80.95831242889588</v>
       </c>
       <c r="G21">
-        <v>3.712398783249629</v>
+        <v>2.022814766006809</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.74561423853544</v>
+        <v>7.172216604245603</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.55718907704798</v>
+        <v>18.12733623040349</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.53369215423791</v>
+        <v>29.3955281112478</v>
       </c>
       <c r="C22">
-        <v>12.58075774201812</v>
+        <v>20.41201936356875</v>
       </c>
       <c r="D22">
-        <v>6.17861510424164</v>
+        <v>6.29024273892393</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>62.82020462427217</v>
+        <v>83.95117399202711</v>
       </c>
       <c r="G22">
-        <v>3.708854552226083</v>
+        <v>2.008741975087601</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.74517504676261</v>
+        <v>7.248730591477853</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.59185166042861</v>
+        <v>18.92822490670505</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.39095885034827</v>
+        <v>28.72998249691438</v>
       </c>
       <c r="C23">
-        <v>12.46609563371426</v>
+        <v>19.93548417504124</v>
       </c>
       <c r="D23">
-        <v>6.160045418216804</v>
+        <v>6.153533248529007</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>62.3645113412674</v>
+        <v>82.3539053723138</v>
       </c>
       <c r="G23">
-        <v>3.710734790749841</v>
+        <v>2.016279398716624</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.74532094866134</v>
+        <v>7.207419001574361</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.57284125083687</v>
+        <v>18.50166772543051</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.85598044426064</v>
+        <v>26.17634095709458</v>
       </c>
       <c r="C24">
-        <v>12.03307871996969</v>
+        <v>18.11359067191216</v>
       </c>
       <c r="D24">
-        <v>6.090997998899941</v>
+        <v>5.632569962677371</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>60.62426361373545</v>
+        <v>76.29244617843793</v>
       </c>
       <c r="G24">
-        <v>3.718106949030872</v>
+        <v>2.044341918916491</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.7478164414575</v>
+        <v>7.060797560947988</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.51208087313676</v>
+        <v>16.86314955352787</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.29462575419445</v>
+        <v>23.32357371346155</v>
       </c>
       <c r="C25">
-        <v>11.57213438199699</v>
+        <v>16.0885184958973</v>
       </c>
       <c r="D25">
-        <v>6.019378230269244</v>
+        <v>5.057534225187118</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>58.72437094659625</v>
+        <v>69.67605601468388</v>
       </c>
       <c r="G25">
-        <v>3.726601422083518</v>
+        <v>2.074113563588616</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.75464934603525</v>
+        <v>6.92043426061915</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.47068701852979</v>
+        <v>15.02792330323204</v>
       </c>
       <c r="N25">
         <v>0</v>
